--- a/xlsx/帕萨迪纳 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/帕萨迪纳 (加利福尼亚州)_intext.xlsx
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E7%A2%97</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%9F%8E%E5%8D%80</t>
   </si>
   <si>
-    <t>西城區</t>
+    <t>西城区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B3%B6%E5%B8%82</t>
   </si>
   <si>
-    <t>三島市</t>
+    <t>三岛市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%BA%B3%E4%BD%90%E5%B0%94</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%E6%B8%AF</t>
   </si>
   <si>
-    <t>路德維希港</t>
+    <t>路德维希港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%88%BE%E6%96%87%E4%BD%A9</t>
   </si>
   <si>
-    <t>耶爾文佩</t>
+    <t>耶尔文佩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E6%97%A5%E9%83%A8%E5%B8%82</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
